--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,34 +546,34 @@
         <v>0.9711091978791584</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>13.21223933333333</v>
+        <v>28.58650933333334</v>
       </c>
       <c r="N2">
-        <v>39.636718</v>
+        <v>85.759528</v>
       </c>
       <c r="O2">
-        <v>0.8149747101495924</v>
+        <v>0.9059490896276022</v>
       </c>
       <c r="P2">
-        <v>0.8149747101495927</v>
+        <v>0.9059490896276023</v>
       </c>
       <c r="Q2">
-        <v>137.8597201822378</v>
+        <v>298.2785944346044</v>
       </c>
       <c r="R2">
-        <v>1240.73748164014</v>
+        <v>2684.50734991144</v>
       </c>
       <c r="S2">
-        <v>0.7914294370651702</v>
+        <v>0.8797754937476144</v>
       </c>
       <c r="T2">
-        <v>0.7914294370651705</v>
+        <v>0.8797754937476147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +620,10 @@
         <v>7.988209000000001</v>
       </c>
       <c r="O3">
-        <v>0.1642464018940561</v>
+        <v>0.08438608327351124</v>
       </c>
       <c r="P3">
-        <v>0.1642464018940561</v>
+        <v>0.08438608327351126</v>
       </c>
       <c r="Q3">
         <v>27.78363883450778</v>
@@ -635,10 +632,10 @@
         <v>250.05274951057</v>
       </c>
       <c r="S3">
-        <v>0.1595011915978747</v>
+        <v>0.08194810163990336</v>
       </c>
       <c r="T3">
-        <v>0.1595011915978747</v>
+        <v>0.08194810163990338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.327069</v>
+        <v>0.304966</v>
       </c>
       <c r="N4">
-        <v>0.9812070000000001</v>
+        <v>0.914898</v>
       </c>
       <c r="O4">
-        <v>0.02017469989371348</v>
+        <v>0.009664827098886481</v>
       </c>
       <c r="P4">
-        <v>0.02017469989371349</v>
+        <v>0.009664827098886483</v>
       </c>
       <c r="Q4">
-        <v>3.41271753279</v>
+        <v>3.182089452393333</v>
       </c>
       <c r="R4">
-        <v>30.71445779511</v>
+        <v>28.63880507154</v>
       </c>
       <c r="S4">
-        <v>0.01959183663123683</v>
+        <v>0.009385602491640404</v>
       </c>
       <c r="T4">
-        <v>0.01959183663123685</v>
+        <v>0.009385602491640405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +711,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.43424333333333</v>
+        <v>0.310422</v>
       </c>
       <c r="H5">
-        <v>31.30273</v>
+        <v>0.9312659999999999</v>
       </c>
       <c r="I5">
-        <v>0.9711091978791583</v>
+        <v>0.02889080212084161</v>
       </c>
       <c r="J5">
-        <v>0.9711091978791584</v>
+        <v>0.02889080212084161</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.009795</v>
+        <v>28.58650933333334</v>
       </c>
       <c r="N5">
-        <v>0.029385</v>
+        <v>85.759528</v>
       </c>
       <c r="O5">
-        <v>0.0006041880626379251</v>
+        <v>0.9059490896276022</v>
       </c>
       <c r="P5">
-        <v>0.0006041880626379253</v>
+        <v>0.9059490896276023</v>
       </c>
       <c r="Q5">
-        <v>0.10220341345</v>
+        <v>8.873881400271999</v>
       </c>
       <c r="R5">
-        <v>0.91983072105</v>
+        <v>79.86493260244799</v>
       </c>
       <c r="S5">
-        <v>0.0005867325848764781</v>
+        <v>0.02617359587998765</v>
       </c>
       <c r="T5">
-        <v>0.0005867325848764784</v>
+        <v>0.02617359587998766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,34 +794,34 @@
         <v>0.02889080212084161</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>13.21223933333333</v>
+        <v>2.662736333333334</v>
       </c>
       <c r="N6">
-        <v>39.636718</v>
+        <v>7.988209000000001</v>
       </c>
       <c r="O6">
-        <v>0.8149747101495924</v>
+        <v>0.08438608327351124</v>
       </c>
       <c r="P6">
-        <v>0.8149747101495927</v>
+        <v>0.08438608327351126</v>
       </c>
       <c r="Q6">
-        <v>4.101369758332</v>
+        <v>0.826571938066</v>
       </c>
       <c r="R6">
-        <v>36.912327824988</v>
+        <v>7.439147442594001</v>
       </c>
       <c r="S6">
-        <v>0.02354527308442212</v>
+        <v>0.002437981633607875</v>
       </c>
       <c r="T6">
-        <v>0.02354527308442213</v>
+        <v>0.002437981633607876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -865,152 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.662736333333334</v>
+        <v>0.304966</v>
       </c>
       <c r="N7">
-        <v>7.988209000000001</v>
+        <v>0.914898</v>
       </c>
       <c r="O7">
-        <v>0.1642464018940561</v>
+        <v>0.009664827098886481</v>
       </c>
       <c r="P7">
-        <v>0.1642464018940561</v>
+        <v>0.009664827098886483</v>
       </c>
       <c r="Q7">
-        <v>0.826571938066</v>
+        <v>0.094668155652</v>
       </c>
       <c r="R7">
-        <v>7.439147442594001</v>
+        <v>0.8520134008679999</v>
       </c>
       <c r="S7">
-        <v>0.004745210296181398</v>
+        <v>0.000279224607246077</v>
       </c>
       <c r="T7">
-        <v>0.0047452102961814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.310422</v>
-      </c>
-      <c r="H8">
-        <v>0.9312659999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.02889080212084161</v>
-      </c>
-      <c r="J8">
-        <v>0.02889080212084161</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.327069</v>
-      </c>
-      <c r="N8">
-        <v>0.9812070000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.02017469989371348</v>
-      </c>
-      <c r="P8">
-        <v>0.02017469989371349</v>
-      </c>
-      <c r="Q8">
-        <v>0.101529413118</v>
-      </c>
-      <c r="R8">
-        <v>0.913764718062</v>
-      </c>
-      <c r="S8">
-        <v>0.0005828632624766403</v>
-      </c>
-      <c r="T8">
-        <v>0.0005828632624766407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.310422</v>
-      </c>
-      <c r="H9">
-        <v>0.9312659999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.02889080212084161</v>
-      </c>
-      <c r="J9">
-        <v>0.02889080212084161</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.009795</v>
-      </c>
-      <c r="N9">
-        <v>0.029385</v>
-      </c>
-      <c r="O9">
-        <v>0.0006041880626379251</v>
-      </c>
-      <c r="P9">
-        <v>0.0006041880626379253</v>
-      </c>
-      <c r="Q9">
-        <v>0.00304058349</v>
-      </c>
-      <c r="R9">
-        <v>0.02736525141</v>
-      </c>
-      <c r="S9">
-        <v>1.745547776144695E-05</v>
-      </c>
-      <c r="T9">
-        <v>1.745547776144696E-05</v>
+        <v>0.0002792246072460771</v>
       </c>
     </row>
   </sheetData>
